--- a/IT002-OOP/Điểm lý thuyết/IT002.Q12/IT002.Q12_25-10-14.xlsx
+++ b/IT002-OOP/Điểm lý thuyết/IT002.Q12/IT002.Q12_25-10-14.xlsx
@@ -1,21 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11214"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vutuanhai/Desktop/Quan trọng/CourseMaterials/IT002-OOP/Điểm lý thuyết/IT002.Q12/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120B7B1C-4E96-5D46-A4DE-FE0219D790A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="IT002.Q12" sheetId="1" r:id="rId4"/>
+    <sheet name="IT002.Q12" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="157">
   <si>
     <t>TRƯỜNG ĐH CÔNG NGHỆ THÔNG TIN</t>
   </si>
@@ -56,9 +74,6 @@
     <t>Họ và tên sinh viên</t>
   </si>
   <si>
-    <t>Ghi chú</t>
-  </si>
-  <si>
     <t>18520775</t>
   </si>
   <si>
@@ -471,105 +486,98 @@
   </si>
   <si>
     <t>Trần Nguyễn Hoàng Yến</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Báo cáo </t>
+  </si>
+  <si>
+    <t>xx</t>
+  </si>
+  <si>
+    <t>xxx</t>
+  </si>
+  <si>
+    <t>xxxx</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>xxxxx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0#######"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="1"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <i/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="1"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <i/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -657,109 +665,114 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="164" fillId="0" borderId="5" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+  <cellXfs count="37">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1049,34 +1062,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="200" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="8.83203125" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="12.5" customWidth="true" style="0"/>
-    <col min="3" max="3" width="30" customWidth="true" style="0"/>
-    <col min="4" max="4" width="18.6640625" customWidth="true" style="0"/>
-    <col min="5" max="5" width="13.5" customWidth="true" style="0"/>
-    <col min="6" max="6" width="11.83203125" customWidth="true" style="0"/>
-    <col min="7" max="7" width="13.5" customWidth="true" style="0"/>
-    <col min="8" max="8" width="13.33203125" customWidth="true" style="0"/>
+    <col min="1" max="1" width="6.1640625" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" customWidth="1"/>
+    <col min="7" max="7" width="13.5" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customHeight="1" ht="15">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
       <c r="D1" s="13"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -1085,19 +1095,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" customHeight="1" ht="14">
-      <c r="A2" s="34" t="s">
+    <row r="2" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" customHeight="1" ht="14">
+    <row r="3" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1107,24 +1117,24 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" customHeight="1" ht="18">
-      <c r="A4" s="35" t="s">
+    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="36" t="s">
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="4" t="s">
         <v>5</v>
       </c>
@@ -1133,12 +1143,12 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="32" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
       <c r="D6" s="5" t="s">
         <v>7</v>
       </c>
@@ -1147,12 +1157,12 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="32" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="5" t="s">
         <v>9</v>
       </c>
@@ -1161,7 +1171,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8" customHeight="1" ht="14">
+    <row r="8" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="22"/>
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
@@ -1171,7 +1181,7 @@
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:8" customHeight="1" ht="26">
+    <row r="9" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="18" t="s">
         <v>10</v>
       </c>
@@ -1182,946 +1192,1013 @@
         <v>12</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9"/>
-    </row>
-    <row r="10" spans="1:8" customHeight="1" ht="24">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="23">
         <v>1</v>
       </c>
       <c r="B10" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="21"/>
-      <c r="H10"/>
-    </row>
-    <row r="11" spans="1:8" customHeight="1" ht="24">
+      <c r="D10" s="21" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="23">
         <v>2</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" s="21"/>
-      <c r="H11"/>
-    </row>
-    <row r="12" spans="1:8" customHeight="1" ht="24">
+        <v>83</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="23">
         <v>3</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" s="21"/>
-      <c r="H12"/>
-    </row>
-    <row r="13" spans="1:8" customHeight="1" ht="24">
+        <v>84</v>
+      </c>
+      <c r="D12" s="21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="23">
         <v>4</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="21"/>
-      <c r="H13"/>
-    </row>
-    <row r="14" spans="1:8" customHeight="1" ht="24">
+        <v>85</v>
+      </c>
+      <c r="D13" s="21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="23">
         <v>5</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" s="21"/>
-      <c r="H14"/>
-    </row>
-    <row r="15" spans="1:8" customHeight="1" ht="24">
+        <v>86</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="23">
         <v>6</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" s="21"/>
-      <c r="H15"/>
-    </row>
-    <row r="16" spans="1:8" customHeight="1" ht="24">
+        <v>87</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="23">
         <v>7</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D16" s="21"/>
-      <c r="H16"/>
-    </row>
-    <row r="17" spans="1:8" customHeight="1" ht="24">
+        <v>88</v>
+      </c>
+      <c r="D16" s="21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="23">
         <v>8</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="D17" s="21"/>
-      <c r="H17"/>
-    </row>
-    <row r="18" spans="1:8" customHeight="1" ht="24">
+        <v>89</v>
+      </c>
+      <c r="D17" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="23">
         <v>9</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="D18" s="21"/>
-      <c r="H18"/>
-    </row>
-    <row r="19" spans="1:8" customHeight="1" ht="24">
+        <v>90</v>
+      </c>
+      <c r="D18" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="23">
         <v>10</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" s="21"/>
-      <c r="H19"/>
-    </row>
-    <row r="20" spans="1:8" customHeight="1" ht="24">
+        <v>91</v>
+      </c>
+      <c r="D19" s="21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="23">
         <v>11</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="D20" s="21"/>
-      <c r="H20"/>
-    </row>
-    <row r="21" spans="1:8" customHeight="1" ht="24">
+        <v>92</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="23">
         <v>12</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="D21" s="21"/>
-      <c r="H21"/>
-    </row>
-    <row r="22" spans="1:8" customHeight="1" ht="24">
+        <v>93</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="23">
         <v>13</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D22" s="21"/>
-      <c r="H22"/>
-    </row>
-    <row r="23" spans="1:8" customHeight="1" ht="24">
+        <v>94</v>
+      </c>
+      <c r="D22" s="21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="23">
         <v>14</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="D23" s="21"/>
-      <c r="H23"/>
-    </row>
-    <row r="24" spans="1:8" customHeight="1" ht="24">
+        <v>95</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="23">
         <v>15</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="D24" s="21"/>
-      <c r="H24"/>
-    </row>
-    <row r="25" spans="1:8" customHeight="1" ht="24">
+        <v>96</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="23">
         <v>16</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="D25" s="21"/>
-      <c r="H25"/>
-    </row>
-    <row r="26" spans="1:8" customHeight="1" ht="24">
+        <v>97</v>
+      </c>
+      <c r="D25" s="21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="23">
         <v>17</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="D26" s="21"/>
-      <c r="H26"/>
-    </row>
-    <row r="27" spans="1:8" customHeight="1" ht="24">
+        <v>98</v>
+      </c>
+      <c r="D26" s="21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="23">
         <v>18</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="D27" s="21"/>
-      <c r="H27"/>
-    </row>
-    <row r="28" spans="1:8" customHeight="1" ht="24">
+        <v>99</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="23">
         <v>19</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="D28" s="21"/>
-      <c r="H28"/>
-    </row>
-    <row r="29" spans="1:8" customHeight="1" ht="24">
+        <v>100</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="23">
         <v>20</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="D29" s="21"/>
-      <c r="H29"/>
-    </row>
-    <row r="30" spans="1:8" customHeight="1" ht="24">
+        <v>101</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="23">
         <v>21</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="D30" s="21"/>
-      <c r="H30"/>
-    </row>
-    <row r="31" spans="1:8" customHeight="1" ht="24">
+        <v>102</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="23">
         <v>22</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="D31" s="21"/>
-      <c r="H31"/>
-    </row>
-    <row r="32" spans="1:8" customHeight="1" ht="24">
+        <v>103</v>
+      </c>
+      <c r="D31" s="21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="23">
         <v>23</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="D32" s="21"/>
-      <c r="H32"/>
-    </row>
-    <row r="33" spans="1:8" customHeight="1" ht="24">
+        <v>104</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="23">
         <v>24</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="D33" s="21"/>
-      <c r="H33"/>
-    </row>
-    <row r="34" spans="1:8" customHeight="1" ht="24">
+        <v>105</v>
+      </c>
+      <c r="D33" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="23">
         <v>25</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="D34" s="21"/>
-      <c r="H34"/>
-    </row>
-    <row r="35" spans="1:8" customHeight="1" ht="24">
+        <v>106</v>
+      </c>
+      <c r="D34" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="23">
         <v>26</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="D35" s="21"/>
-      <c r="H35"/>
-    </row>
-    <row r="36" spans="1:8" customHeight="1" ht="24">
+        <v>107</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="23">
         <v>27</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="D36" s="21"/>
-      <c r="H36"/>
-    </row>
-    <row r="37" spans="1:8" customHeight="1" ht="24">
+        <v>108</v>
+      </c>
+      <c r="D36" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="23">
         <v>28</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="D37" s="21"/>
-      <c r="H37"/>
-    </row>
-    <row r="38" spans="1:8" customHeight="1" ht="24">
+        <v>109</v>
+      </c>
+      <c r="D37" s="21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="23">
         <v>29</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="D38" s="21"/>
-      <c r="H38"/>
-    </row>
-    <row r="39" spans="1:8" customHeight="1" ht="24">
+        <v>110</v>
+      </c>
+      <c r="D38" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="23">
         <v>30</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="D39" s="21"/>
-      <c r="H39"/>
-    </row>
-    <row r="40" spans="1:8" customHeight="1" ht="24">
+        <v>111</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="23">
         <v>31</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="D40" s="21"/>
-      <c r="H40"/>
-    </row>
-    <row r="41" spans="1:8" customHeight="1" ht="24">
+        <v>112</v>
+      </c>
+      <c r="D40" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="23">
         <v>32</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="D41" s="21"/>
-      <c r="H41"/>
-    </row>
-    <row r="42" spans="1:8" customHeight="1" ht="24">
+        <v>113</v>
+      </c>
+      <c r="D41" s="21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="23">
         <v>33</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="D42" s="21"/>
-      <c r="H42"/>
-    </row>
-    <row r="43" spans="1:8" customHeight="1" ht="24">
+        <v>114</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="23">
         <v>34</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="D43" s="21"/>
-      <c r="H43"/>
-    </row>
-    <row r="44" spans="1:8" customHeight="1" ht="24">
+        <v>115</v>
+      </c>
+      <c r="D43" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="23">
         <v>35</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="D44" s="21"/>
-      <c r="H44"/>
-    </row>
-    <row r="45" spans="1:8" customHeight="1" ht="24">
+        <v>116</v>
+      </c>
+      <c r="D44" s="21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="23">
         <v>36</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="D45" s="21"/>
-      <c r="H45"/>
-    </row>
-    <row r="46" spans="1:8" customHeight="1" ht="24">
+        <v>117</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="23">
         <v>37</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="D46" s="21"/>
-      <c r="H46"/>
-    </row>
-    <row r="47" spans="1:8" customHeight="1" ht="24">
+        <v>118</v>
+      </c>
+      <c r="D46" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="23">
         <v>38</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="D47" s="21"/>
-      <c r="H47"/>
-    </row>
-    <row r="48" spans="1:8" customHeight="1" ht="24">
+        <v>119</v>
+      </c>
+      <c r="D47" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="23">
         <v>39</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="D48" s="21"/>
-      <c r="H48"/>
-    </row>
-    <row r="49" spans="1:8" customHeight="1" ht="24">
+        <v>120</v>
+      </c>
+      <c r="D48" s="21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="23">
         <v>40</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="D49" s="21"/>
-      <c r="H49"/>
-    </row>
-    <row r="50" spans="1:8" customHeight="1" ht="24">
+        <v>121</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="23">
         <v>41</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="D50" s="21"/>
-      <c r="H50"/>
-    </row>
-    <row r="51" spans="1:8" customHeight="1" ht="24">
+        <v>122</v>
+      </c>
+      <c r="D50" s="21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="23">
         <v>42</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="D51" s="21"/>
-      <c r="H51"/>
-    </row>
-    <row r="52" spans="1:8" customHeight="1" ht="24">
+        <v>123</v>
+      </c>
+      <c r="D51" s="21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="23">
         <v>43</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="D52" s="21"/>
-      <c r="H52"/>
-    </row>
-    <row r="53" spans="1:8" customHeight="1" ht="24">
+        <v>124</v>
+      </c>
+      <c r="D52" s="21" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="23">
         <v>44</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="D53" s="21"/>
-      <c r="H53"/>
-    </row>
-    <row r="54" spans="1:8" customHeight="1" ht="24">
+        <v>125</v>
+      </c>
+      <c r="D53" s="21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="23">
         <v>45</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="D54" s="21"/>
-      <c r="H54"/>
-    </row>
-    <row r="55" spans="1:8" customHeight="1" ht="24">
+        <v>126</v>
+      </c>
+      <c r="D54" s="21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="23">
         <v>46</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="D55" s="21"/>
-      <c r="H55"/>
-    </row>
-    <row r="56" spans="1:8" customHeight="1" ht="24">
+        <v>127</v>
+      </c>
+      <c r="D55" s="21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="23">
         <v>47</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="D56" s="21"/>
-      <c r="H56"/>
-    </row>
-    <row r="57" spans="1:8" customHeight="1" ht="24">
+        <v>128</v>
+      </c>
+      <c r="D56" s="21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="23">
         <v>48</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="D57" s="21"/>
-      <c r="H57"/>
-    </row>
-    <row r="58" spans="1:8" customHeight="1" ht="24">
+        <v>129</v>
+      </c>
+      <c r="D57" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="23">
         <v>49</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="D58" s="21"/>
-      <c r="H58"/>
-    </row>
-    <row r="59" spans="1:8" customHeight="1" ht="24">
+        <v>130</v>
+      </c>
+      <c r="D58" s="21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="23">
         <v>50</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="D59" s="21"/>
-      <c r="H59"/>
-    </row>
-    <row r="60" spans="1:8" customHeight="1" ht="24">
+        <v>131</v>
+      </c>
+      <c r="D59" s="21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="23">
         <v>51</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="D60" s="21"/>
-      <c r="H60"/>
-    </row>
-    <row r="61" spans="1:8" customHeight="1" ht="24">
+        <v>132</v>
+      </c>
+      <c r="D60" s="21" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="23">
         <v>52</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="D61" s="21"/>
-      <c r="H61"/>
-    </row>
-    <row r="62" spans="1:8" customHeight="1" ht="24">
+        <v>133</v>
+      </c>
+      <c r="D61" s="21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="23">
         <v>53</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="D62" s="21"/>
-      <c r="H62"/>
-    </row>
-    <row r="63" spans="1:8" customHeight="1" ht="24">
+        <v>134</v>
+      </c>
+      <c r="D62" s="21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="23">
         <v>54</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="D63" s="21"/>
-      <c r="H63"/>
-    </row>
-    <row r="64" spans="1:8" customHeight="1" ht="24">
+        <v>135</v>
+      </c>
+      <c r="D63" s="21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="23">
         <v>55</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="D64" s="21"/>
-      <c r="H64"/>
-    </row>
-    <row r="65" spans="1:8" customHeight="1" ht="24">
+        <v>136</v>
+      </c>
+      <c r="D64" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="23">
         <v>56</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="D65" s="21"/>
-      <c r="H65"/>
-    </row>
-    <row r="66" spans="1:8" customHeight="1" ht="24">
+        <v>137</v>
+      </c>
+      <c r="D65" s="21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="23">
         <v>57</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="D66" s="21"/>
-      <c r="H66"/>
-    </row>
-    <row r="67" spans="1:8" customHeight="1" ht="24">
+        <v>138</v>
+      </c>
+      <c r="D66" s="21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="23">
         <v>58</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="D67" s="21"/>
-      <c r="H67"/>
-    </row>
-    <row r="68" spans="1:8" customHeight="1" ht="24">
+        <v>139</v>
+      </c>
+      <c r="D67" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="23">
         <v>59</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="D68" s="21"/>
-      <c r="H68"/>
-    </row>
-    <row r="69" spans="1:8" customHeight="1" ht="24">
+        <v>140</v>
+      </c>
+      <c r="D68" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="23">
         <v>60</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="D69" s="21"/>
-      <c r="H69"/>
-    </row>
-    <row r="70" spans="1:8" customHeight="1" ht="24">
+        <v>141</v>
+      </c>
+      <c r="D69" s="21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="23">
         <v>61</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="D70" s="21"/>
-      <c r="H70"/>
-    </row>
-    <row r="71" spans="1:8" customHeight="1" ht="24">
+        <v>142</v>
+      </c>
+      <c r="D70" s="21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="23">
         <v>62</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C71" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="D71" s="21"/>
-      <c r="H71"/>
-    </row>
-    <row r="72" spans="1:8" customHeight="1" ht="24">
+        <v>143</v>
+      </c>
+      <c r="D71" s="21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="23">
         <v>63</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C72" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="D72" s="21"/>
-      <c r="H72"/>
-    </row>
-    <row r="73" spans="1:8" customHeight="1" ht="24">
+        <v>144</v>
+      </c>
+      <c r="D72" s="21" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="23">
         <v>64</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C73" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="D73" s="21"/>
-      <c r="H73"/>
-    </row>
-    <row r="74" spans="1:8" customHeight="1" ht="24">
+        <v>145</v>
+      </c>
+      <c r="D73" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="23">
         <v>65</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C74" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="D74" s="21"/>
-      <c r="H74"/>
-    </row>
-    <row r="75" spans="1:8" customHeight="1" ht="24">
+        <v>146</v>
+      </c>
+      <c r="D74" s="21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="23">
         <v>66</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C75" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="D75" s="21"/>
-      <c r="H75"/>
-    </row>
-    <row r="76" spans="1:8" customHeight="1" ht="24">
+        <v>147</v>
+      </c>
+      <c r="D75" s="21" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="23">
         <v>67</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C76" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="D76" s="21"/>
-      <c r="H76"/>
-    </row>
-    <row r="77" spans="1:8" customHeight="1" ht="24">
+        <v>148</v>
+      </c>
+      <c r="D76" s="21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="23">
         <v>68</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C77" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="D77" s="21"/>
-      <c r="H77"/>
-    </row>
-    <row r="78" spans="1:8" customHeight="1" ht="24">
+        <v>149</v>
+      </c>
+      <c r="D77" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="23">
         <v>69</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C78" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="D78" s="21"/>
-      <c r="H78"/>
-    </row>
-    <row r="79" spans="1:8" customHeight="1" ht="24">
+        <v>150</v>
+      </c>
+      <c r="D78" s="21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="23"/>
       <c r="B79" s="19"/>
       <c r="C79" s="20"/>
       <c r="D79" s="21"/>
-      <c r="H79"/>
-    </row>
-    <row r="80" spans="1:8" customHeight="1" ht="14">
+    </row>
+    <row r="80" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="24"/>
       <c r="B80" s="10"/>
       <c r="C80" s="11"/>
-      <c r="D80" s="26"/>
-      <c r="E80" s="26"/>
-      <c r="F80" s="26"/>
-      <c r="G80" s="26"/>
-      <c r="H80" s="26"/>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="A81" s="27"/>
-      <c r="B81" s="27"/>
+      <c r="D80" s="31"/>
+      <c r="E80" s="31"/>
+      <c r="F80" s="31"/>
+      <c r="G80" s="31"/>
+      <c r="H80" s="31"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A81" s="32"/>
+      <c r="B81" s="32"/>
       <c r="C81" s="16"/>
-      <c r="D81" s="28"/>
-      <c r="E81" s="29"/>
-      <c r="F81" s="30"/>
-      <c r="G81" s="29"/>
-      <c r="H81" s="29"/>
-    </row>
-    <row r="82" spans="1:8">
-      <c r="A82" s="31"/>
-      <c r="B82" s="31"/>
+      <c r="D81" s="33"/>
+      <c r="E81" s="34"/>
+      <c r="F81" s="35"/>
+      <c r="G81" s="34"/>
+      <c r="H81" s="34"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A82" s="36"/>
+      <c r="B82" s="36"/>
       <c r="C82" s="17"/>
-      <c r="D82" s="31"/>
-      <c r="E82" s="31"/>
-      <c r="F82" s="31"/>
-      <c r="G82" s="31"/>
-      <c r="H82" s="31"/>
-    </row>
-    <row r="83" spans="1:8" customHeight="1" ht="14">
-      <c r="A83" s="25"/>
+      <c r="D82" s="36"/>
+      <c r="E82" s="36"/>
+      <c r="F82" s="36"/>
+      <c r="G82" s="36"/>
+      <c r="H82" s="36"/>
+    </row>
+    <row r="83" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="24"/>
       <c r="B83" s="12"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -2132,13 +2209,7 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A4:E4"/>
+  <mergeCells count="13">
     <mergeCell ref="D80:H80"/>
     <mergeCell ref="A81:B81"/>
     <mergeCell ref="D81:E81"/>
@@ -2146,18 +2217,14 @@
     <mergeCell ref="A82:B82"/>
     <mergeCell ref="D82:E82"/>
     <mergeCell ref="F82:H82"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A4:E4"/>
   </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.26" right="0.17" top="0.32" bottom="0.29" header="0.25" footer="0.19"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-  <tableParts count="0"/>
+  <pageMargins left="0.26" right="0.17" top="0.32" bottom="0.28999999999999998" header="0.25" footer="0.19"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>